--- a/Examples/Simple_Heat_ex/Node Mapping.xlsx
+++ b/Examples/Simple_Heat_ex/Node Mapping.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20409"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20411"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mabbas\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mabbas\OneDrive - Universidad Pontificia Comillas\Documentos\10- GitHub Repositories\Mines\InfraFair\Examples\Simple_Heat_ex\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E52AA06-E6B1-4FD6-89B0-F66CF6C0EEF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="13" documentId="13_ncr:1_{5E52AA06-E6B1-4FD6-89B0-F66CF6C0EEF3}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{6690259E-BC58-4761-A5C1-061D6488910F}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -177,10 +177,10 @@
     <t>Area</t>
   </si>
   <si>
-    <t>The Hauge</t>
-  </si>
-  <si>
     <t>Lansingerland</t>
+  </si>
+  <si>
+    <t>The Hague</t>
   </si>
 </sst>
 </file>
@@ -510,8 +510,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1:D1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="D29" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -558,7 +558,7 @@
         <v>431</v>
       </c>
       <c r="D3" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -586,7 +586,7 @@
         <v>414</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -600,7 +600,7 @@
         <v>429</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -614,7 +614,7 @@
         <v>402</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -628,7 +628,7 @@
         <v>408</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -642,7 +642,7 @@
         <v>401</v>
       </c>
       <c r="D9" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -656,7 +656,7 @@
         <v>437</v>
       </c>
       <c r="D10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -684,7 +684,7 @@
         <v>407</v>
       </c>
       <c r="D12" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -698,7 +698,7 @@
         <v>406</v>
       </c>
       <c r="D13" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -712,7 +712,7 @@
         <v>410</v>
       </c>
       <c r="D14" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -754,7 +754,7 @@
         <v>405</v>
       </c>
       <c r="D17" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -768,7 +768,7 @@
         <v>443</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -782,7 +782,7 @@
         <v>438</v>
       </c>
       <c r="D19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -796,7 +796,7 @@
         <v>439</v>
       </c>
       <c r="D20" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -810,7 +810,7 @@
         <v>440</v>
       </c>
       <c r="D21" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -838,7 +838,7 @@
         <v>436</v>
       </c>
       <c r="D23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -880,7 +880,7 @@
         <v>435</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1034,7 +1034,7 @@
         <v>403</v>
       </c>
       <c r="D37" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1048,7 +1048,7 @@
         <v>404</v>
       </c>
       <c r="D38" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1062,7 +1062,7 @@
         <v>446</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1076,7 +1076,7 @@
         <v>444</v>
       </c>
       <c r="D40" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1104,7 +1104,7 @@
         <v>420</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1118,7 +1118,7 @@
         <v>413</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="44" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1132,7 +1132,7 @@
         <v>416</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1146,7 +1146,7 @@
         <v>434</v>
       </c>
       <c r="D45" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="15.75" x14ac:dyDescent="0.25">
@@ -1174,7 +1174,7 @@
         <v>409</v>
       </c>
       <c r="D47" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
   </sheetData>
